--- a/SPPSApi/Doc/Template/FS0606.xlsx
+++ b/SPPSApi/Doc/Template/FS0606.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>结束日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -388,9 +392,10 @@
     <col min="1" max="1" width="23.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -399,6 +404,9 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0606.xlsx
+++ b/SPPSApi/Doc/Template/FS0606.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>结束日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -392,10 +388,9 @@
     <col min="1" max="1" width="23.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -404,9 +399,6 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0606.xlsx
+++ b/SPPSApi/Doc/Template/FS0606.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>结束日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -388,9 +392,10 @@
     <col min="1" max="1" width="23.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -399,6 +404,9 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0606.xlsx
+++ b/SPPSApi/Doc/Template/FS0606.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,12 +33,15 @@
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>格式=文本</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +56,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,11 +92,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -409,6 +433,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0606.xlsx
+++ b/SPPSApi/Doc/Template/FS0606.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,12 +33,15 @@
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>格式=文本</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +56,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,18 +96,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -381,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -409,6 +441,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
